--- a/data/trans_camb/P25A_1_R2-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P25A_1_R2-Edad-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,7 +680,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,59</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -657,12 +705,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -671,6 +719,36 @@
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,29</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>0,0</t>
         </is>
@@ -685,7 +763,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,63</t>
+          <t>0,0; 3,41</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -715,15 +793,45 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
           <t>0,0; 1,5</t>
         </is>
       </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -768,15 +876,45 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>inf%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
+      <c r="N6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -834,6 +972,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -858,37 +1026,67 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,58</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,2</t>
+          <t>0,36</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,59</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>20,1</t>
+          <t>-0,19</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-0,1</t>
+          <t>-0,63</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,28</t>
+          <t>-0,09</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>11,89</t>
+          <t>0,79</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>0,8</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,09</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,3</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -911,37 +1109,67 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 3,16</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-2,36; 0,79</t>
+          <t>-1,21; 3,79</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 0,0</t>
+          <t>0,0; 5,15</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 75,0</t>
+          <t>-2,49; 0,88</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,37</t>
+          <t>-3,17; 0,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 0,0</t>
+          <t>-2,42; 1,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 59,52</t>
+          <t>-0,89; 3,91</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-0,54; 3,74</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,42</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-1,32; 0,0</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,6; 1,39</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>-0,63; 2,61</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>-0,19; 3,04</t>
         </is>
       </c>
     </row>
@@ -964,37 +1192,67 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>inf%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-34,01%</t>
+          <t>60,96%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>-29,81%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>3393,4%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-34,45%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>-15,1%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>149,48%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>154,64%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-29,91%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>-100,0%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>4204,66%</t>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>88,55%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>101,33%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>345,85%</t>
         </is>
       </c>
     </row>
@@ -1050,6 +1308,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1074,37 +1362,67 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,57</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0,13</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>-0,34</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>0,46</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>0,21</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>-0,31</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>0,24</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>0,11</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>-0,15</t>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,19</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>0,3</t>
         </is>
       </c>
     </row>
@@ -1127,37 +1445,67 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 2,2</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 1,68</t>
+          <t>-0,83; 2,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,22</t>
+          <t>0,0; 3,44</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,52; 0,0</t>
+          <t>-0,73; 1,39</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,25; 0,87</t>
+          <t>-0,8; 0,94</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 0,55</t>
+          <t>-2,0; 0,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-0,64; 0,0</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 0,7</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 0,49</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>-0,35; 0,78</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 1,02</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>0,0; 1,23</t>
         </is>
       </c>
     </row>
@@ -1180,37 +1528,67 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>40,72%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>107,08%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>38,26%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>-100,0%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>149,92%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>67,9%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>155,22%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>71,4%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>108,77%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>39,01%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>14,9%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>51,87%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>inf%</t>
         </is>
       </c>
     </row>
@@ -1266,6 +1644,36 @@
           <t>—; —</t>
         </is>
       </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-0,24</t>
+          <t>-0,31</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1,02</t>
+          <t>-0,87</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,56</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>16,29</t>
+          <t>1,03</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,69</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>-1,21</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0,12</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,61</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>-1,02</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-1,51; 2,57</t>
+          <t>-1,74; 2,08</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,23; 1,22</t>
+          <t>-2,29; 1,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,0; 33,55</t>
+          <t>-0,84; 4,12</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,08; 2,7</t>
+          <t>-3,37; 2,03</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 1,93</t>
+          <t>-2,1; 2,86</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 67,04</t>
+          <t>-0,21; 2,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,42; 1,93</t>
+          <t>-0,39; 1,73</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,82; 1,08</t>
+          <t>0,18; 4,74</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>2,69; 32,48</t>
+          <t>-4,21; 0,67</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 2,07</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-0,47; 1,7</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 1,04</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>0,24; 3,42</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>-2,95; 0,59</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>-0,87; 1,97</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>28,95%</t>
+          <t>14,74%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-20,79%</t>
+          <t>-25,55%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1063,08%</t>
+          <t>119,42%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>346,1%</t>
+          <t>-32,44%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>189,99%</t>
+          <t>22,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>5532,58%</t>
+          <t>327,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>97,64%</t>
+          <t>165,42%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>24,82%</t>
+          <t>548,2%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1872,13%</t>
+          <t>-58,91%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>100,47%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>81,52%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>15,32%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>211,89%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>-43,13%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>38,15%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1937,7 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1449,17 +1947,17 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-58,47; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-85,35; 219,73</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,17 +1967,47 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-48,95; 737,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-79,19; 549,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>114,55; 9612,75</t>
+          <t>-100,0; 149,44</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-54,7; 631,94</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>-79,47; 378,94</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-25,04; 1086,34</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>-80,91; 61,74</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>-67,67; 737,28</t>
         </is>
       </c>
     </row>
@@ -1496,47 +2024,77 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,18</t>
+          <t>0,29</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>8,13</t>
+          <t>4,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>1,46</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>19,66</t>
+          <t>1,13</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,7</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-0,53</t>
+          <t>1,65</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>13,16</t>
+          <t>0,77</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>-0,42</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>3,1</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>-0,62</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
         </is>
       </c>
     </row>
@@ -1549,47 +2107,77 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 1,98</t>
+          <t>-1,4; 1,89</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-2,44; 0,97</t>
+          <t>-1,97; 1,01</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1,34; 22,06</t>
+          <t>1,78; 8,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 4,38</t>
+          <t>-6,32; 1,83</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-2,94; 0,3</t>
+          <t>-1,8; 5,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,91; 38,88</t>
+          <t>-1,0; 4,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-0,83; 2,62</t>
+          <t>-2,92; 0,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 0,48</t>
+          <t>-0,52; 5,92</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>5,56; 23,23</t>
+          <t>-3,06; 4,48</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>-2,99; 3,72</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,68; 2,41</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-1,58; 0,44</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>1,17; 5,97</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>-3,3; 1,98</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>-1,68; 3,15</t>
         </is>
       </c>
     </row>
@@ -1602,47 +2190,77 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>35,07%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>-32,13%</t>
+          <t>-21,11%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>848,53%</t>
+          <t>558,31%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>118,17%</t>
+          <t>-38,07%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-71,45%</t>
+          <t>76,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1902,99%</t>
+          <t>113,61%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>70,01%</t>
+          <t>-66,16%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-52,87%</t>
+          <t>166,47%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>1320,88%</t>
+          <t>29,31%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>12,3%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>77,6%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>-46,09%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>341,0%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>-15,41%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>35,38%</t>
         </is>
       </c>
     </row>
@@ -1665,37 +2283,67 @@
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,68; —</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-81,26; 61,33</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-67,63; 921,27</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>87,63; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-64,46; 780,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 306,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>249,95; 6418,82</t>
+          <t>-74,1; 629,52</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>-70,2; 269,08</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-61,29; 763,59</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-100,0; 255,33</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>35,83; 1869,16</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>-62,76; 78,44</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>-48,81; 237,85</t>
         </is>
       </c>
     </row>
@@ -1712,47 +2360,77 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>-3,24</t>
+          <t>-2,77</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>-2,23</t>
+          <t>-1,61</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2,51</t>
+          <t>-2,24</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>-3,44</t>
+          <t>8,44</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>-1,72</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>5,47</t>
+          <t>-2,54</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>-3,36</t>
+          <t>-1,02</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>-1,94</t>
+          <t>1,09</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>4,04</t>
+          <t>-4,37</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>-1,61</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>-2,64</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>-1,28</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>-0,36</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1,04</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>2,68</t>
         </is>
       </c>
     </row>
@@ -1765,47 +2443,77 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>-12,79; 0,8</t>
+          <t>-12,12; 1,12</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>-11,89; 2,13</t>
+          <t>-9,83; 2,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-6,92; 13,15</t>
+          <t>-11,18; 2,27</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-8,06; -0,58</t>
+          <t>2,71; 15,15</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-6,15; 2,09</t>
+          <t>2,76; 15,22</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-4,26; 22,15</t>
+          <t>-6,21; 0,24</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-7,46; -0,55</t>
+          <t>-4,7; 2,41</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-6,17; 1,27</t>
+          <t>-3,05; 6,71</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-2,8; 12,94</t>
+          <t>-9,47; -1,03</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>-6,49; 0,7</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>-7,04; -0,5</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>-4,94; 1,45</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>-4,38; 2,96</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>-2,67; 4,4</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 6,08</t>
         </is>
       </c>
     </row>
@@ -1818,47 +2526,77 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>-62,65%</t>
+          <t>-57,27%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>-43,12%</t>
+          <t>-33,21%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>48,41%</t>
+          <t>-46,15%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>-68,96%</t>
+          <t>323,35%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>-34,55%</t>
+          <t>357,26%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>109,56%</t>
+          <t>-60,44%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>-66,17%</t>
+          <t>-24,34%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>-38,34%</t>
+          <t>25,86%</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>79,58%</t>
+          <t>-82,63%</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>-63,67%</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>-58,95%</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>-28,49%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>-8,0%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>25,16%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>107,95%</t>
         </is>
       </c>
     </row>
@@ -1871,47 +2609,77 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 79,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>-94,47; 134,28</t>
+          <t>-91,79; 189,72</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-100,0; 163,87</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-92,13; -1,65</t>
+          <t>-6,63; 1761,75</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-81,2; 93,42</t>
+          <t>19,76; 1822,81</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 772,44</t>
+          <t>-90,12; 21,81</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-89,37; -11,95</t>
+          <t>-74,37; 142,47</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-75,27; 54,62</t>
+          <t>-57,78; 266,91</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>-51,91; 386,34</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>-88,05; -9,56</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>-70,66; 52,23</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>-66,3; 110,21</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>-48,03; 180,98</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>-28,88; 593,31</t>
         </is>
       </c>
     </row>
@@ -1928,47 +2696,77 @@
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>-0,34</t>
+          <t>-0,28</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>-0,45</t>
+          <t>-0,35</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>7,12</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>-0,27</t>
+          <t>0,89</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>1,85</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>12,05</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>-0,31</t>
+          <t>-0,29</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>-0,43</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>9,27</t>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>-0,11</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>-0,2</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>-0,32</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>0,75</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>0,03</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
         </is>
       </c>
     </row>
@@ -1981,47 +2779,77 @@
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 0,43</t>
+          <t>-1,88; 0,42</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>-2,05; 0,29</t>
+          <t>-1,85; 0,45</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2,92; 14,14</t>
+          <t>-0,68; 1,9</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>-1,26; 0,5</t>
+          <t>-0,51; 2,19</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 0,42</t>
+          <t>0,74; 3,29</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>5,64; 22,35</t>
+          <t>-0,97; 0,66</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>-1,06; 0,3</t>
+          <t>-1,12; 0,43</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 0,17</t>
+          <t>-0,25; 2,05</t>
         </is>
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>4,98; 14,48</t>
+          <t>-1,96; 0,2</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>-1,14; 0,75</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>-0,98; 0,35</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>-1,13; 0,21</t>
+        </is>
+      </c>
+      <c r="O29" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 1,59</t>
+        </is>
+      </c>
+      <c r="P29" s="2" t="inlineStr">
+        <is>
+          <t>-0,84; 0,88</t>
+        </is>
+      </c>
+      <c r="Q29" s="2" t="inlineStr">
+        <is>
+          <t>0,11; 1,65</t>
         </is>
       </c>
     </row>
@@ -2034,47 +2862,77 @@
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>-29,33%</t>
+          <t>-25,4%</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>-38,84%</t>
+          <t>-31,65%</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>608,04%</t>
+          <t>70,45%</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>-20,45%</t>
+          <t>46,93%</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>-30,72%</t>
+          <t>197,4%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>901,35%</t>
+          <t>-10,45%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>-24,49%</t>
+          <t>-24,14%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
         <is>
-          <t>-34,41%</t>
+          <t>59,98%</t>
         </is>
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>738,47%</t>
+          <t>-44,01%</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>-9,3%</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>-17,51%</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>-27,68%</t>
+        </is>
+      </c>
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>64,93%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>1,32%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
+        <is>
+          <t>82,21%</t>
         </is>
       </c>
     </row>
@@ -2087,63 +2945,100 @@
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>-78,58; 76,01</t>
+          <t>-79,55; 77,72</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>-84,88; 55,06</t>
+          <t>-80,48; 83,35</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>70,71; 1854,96</t>
+          <t>-41,92; 298,42</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>-65,48; 72,38</t>
+          <t>-21,05; 157,94</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>-70,73; 68,22</t>
+          <t>43,24; 679,7</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>322,73; 2536,14</t>
+          <t>-56,58; 85,77</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>-58,59; 37,78</t>
+          <t>-66,41; 62,16</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
         <is>
-          <t>-65,36; 24,85</t>
+          <t>-20,61; 257,2</t>
         </is>
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>302,31; 1427,09</t>
+          <t>-72,96; 23,79</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>-65,47; 117,88</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>-55,33; 46,85</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>-62,66; 32,57</t>
+        </is>
+      </c>
+      <c r="O31" s="2" t="inlineStr">
+        <is>
+          <t>-10,66; 182,38</t>
+        </is>
+      </c>
+      <c r="P31" s="2" t="inlineStr">
+        <is>
+          <t>-36,4; 60,76</t>
+        </is>
+      </c>
+      <c r="Q31" s="2" t="inlineStr">
+        <is>
+          <t>4,94; 239,83</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A28:A31"/>
     <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
